--- a/Projects/Master/data/regional/InputForCode_Master.xlsx
+++ b/Projects/Master/data/regional/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{098A2C2A-A51F-0C45-AD4D-D14873ED4E8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E9BB785-C909-1F45-8469-A7C56A6C9C87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <sheet name="Population risk areas" sheetId="43" r:id="rId33"/>
   </sheets>
   <definedNames>
-    <definedName name="FPCov">'Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPCov">'Programs cost and coverage'!$B$7</definedName>
     <definedName name="FPunmetNeed">'Baseline year demographics'!$C$11</definedName>
     <definedName name="FracChildrenHF">'Baseline year demographics'!$C$10</definedName>
     <definedName name="FracEatingWheat">'Baseline year demographics'!$C$27</definedName>
@@ -1609,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{366947C2-6F3E-3D4B-BB8E-D21B0EF78FDB}">
+    <comment ref="E28" authorId="2" shapeId="0" xr:uid="{366947C2-6F3E-3D4B-BB8E-D21B0EF78FDB}">
       <text>
         <r>
           <rPr>
@@ -1643,7 +1643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{B56FD4D9-6DE4-C84D-958C-52FC53419D55}">
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{B56FD4D9-6DE4-C84D-958C-52FC53419D55}">
       <text>
         <r>
           <rPr>
@@ -2170,7 +2170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2203,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2227,7 +2227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000006000000}">
+    <comment ref="A21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000007000000}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2971,7 +2971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -3782,6 +3782,9 @@
   <si>
     <t>under 5</t>
   </si>
+  <si>
+    <t>Delayed cord clamping</t>
+  </si>
 </sst>
 </file>
 
@@ -4947,7 +4950,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5184,6 +5187,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="726">
@@ -7334,7 +7340,7 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -8180,10 +8186,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8227,184 +8233,184 @@
       <c r="B5" s="98"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="98" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" s="98"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="B7" s="98"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="98"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="98"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="98"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="98" t="s">
-        <v>117</v>
       </c>
       <c r="B10" s="98"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B11" s="98"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B12" s="98"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B13" s="98"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B14" s="98"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="98"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B16" s="98"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B17" s="98"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B18" s="98"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B19" s="98"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B21" s="98"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B22" s="98"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B23" s="98"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="98"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="98" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" s="98"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="B25" s="98"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B26" s="98"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B27" s="98"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B28" s="98"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="B29" s="98"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="98"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B30" s="98"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="B31" s="98"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B32" s="98"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="98"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="98"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>158</v>
-      </c>
+      <c r="B34" s="98"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B35" s="98" t="s">
         <v>158</v>
@@ -8412,7 +8418,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>158</v>
@@ -8420,39 +8426,39 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="98"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
+      <c r="B38" s="98"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" s="98"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="B39" s="98"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="98"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="98"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="98" t="s">
-        <v>250</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>158</v>
@@ -8460,7 +8466,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>158</v>
@@ -8468,51 +8474,59 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="98"/>
+        <v>249</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B45" s="98"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="98"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="98"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="98"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="98"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="98"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="111" t="s">
-        <v>154</v>
       </c>
       <c r="B49" s="98"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="98"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="98"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="98"/>
+      <c r="B52" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8525,10 +8539,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8576,330 +8590,336 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="str">
         <f>'Programs to include'!A7</f>
+        <v>Family Planning</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="str">
+        <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>IFA fortification of rice</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
-      </c>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: community</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: hospital</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: retailer</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: school</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>IFAS poor: community</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>IFAS poor: hospital</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="str">
-        <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
+        <v>IPTp</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="str">
         <f>'Programs to include'!A27</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="str">
+        <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>'Programs to include'!A28</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>Mg for pre-eclampsia</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="str">
         <f>'Programs to include'!A32</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="str">
+        <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="str">
-        <f>'Programs to include'!A33</f>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="str">
+        <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="str">
-        <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
         <f>'Programs to include'!A40</f>
+        <v>Treatment of MAM</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="str">
+        <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="str">
-        <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
-      </c>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+        <v>Zinc for treatment + ORS</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+        <v>IYCF 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
+        <v>IYCF 2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
       </c>
     </row>
@@ -8915,10 +8935,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8974,7 +8994,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B6" s="67">
         <v>1</v>
@@ -8983,7 +9003,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B7" s="67">
         <v>1</v>
@@ -8992,7 +9012,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B8" s="67">
         <v>1</v>
@@ -9001,7 +9021,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B9" s="67">
         <v>1</v>
@@ -9010,7 +9030,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B10" s="67">
         <v>1</v>
@@ -9019,7 +9039,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B11" s="67">
         <v>1</v>
@@ -9028,7 +9048,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B12" s="67">
         <v>1</v>
@@ -9037,7 +9057,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B13" s="67">
         <v>1</v>
@@ -9046,7 +9066,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B14" s="67">
         <v>1</v>
@@ -9055,7 +9075,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B15" s="67">
         <v>1</v>
@@ -9064,7 +9084,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B16" s="67">
         <v>1</v>
@@ -9073,7 +9093,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B17" s="67">
         <v>1</v>
@@ -9082,7 +9102,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B18" s="67">
         <v>1</v>
@@ -9091,7 +9111,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B19" s="67">
         <v>1</v>
@@ -9100,7 +9120,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B20" s="67">
         <v>1</v>
@@ -9109,7 +9129,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B21" s="67">
         <v>1</v>
@@ -9118,7 +9138,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B22" s="67">
         <v>1</v>
@@ -9127,7 +9147,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B23" s="67">
         <v>1</v>
@@ -9136,7 +9156,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B24" s="67">
         <v>1</v>
@@ -9145,7 +9165,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B25" s="67">
         <v>1</v>
@@ -9154,7 +9174,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" s="67">
         <v>1</v>
@@ -9163,7 +9183,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B27" s="67">
         <v>1</v>
@@ -9172,7 +9192,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B28" s="67">
         <v>1</v>
@@ -9181,7 +9201,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B29" s="67">
         <v>1</v>
@@ -9190,7 +9210,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B30" s="67">
         <v>1</v>
@@ -9199,7 +9219,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B31" s="67">
         <v>1</v>
@@ -9208,7 +9228,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B32" s="67">
         <v>1</v>
@@ -9217,7 +9237,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B33" s="67">
         <v>1</v>
@@ -9226,7 +9246,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B34" s="67">
         <v>1</v>
@@ -9235,7 +9255,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" s="67">
         <v>1</v>
@@ -9244,7 +9264,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" s="67">
         <v>1</v>
@@ -9253,7 +9273,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B37" s="67">
         <v>1</v>
@@ -9262,7 +9282,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" s="67">
         <v>1</v>
@@ -9271,7 +9291,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B39" s="67">
         <v>1</v>
@@ -9280,7 +9300,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B40" s="67">
         <v>1</v>
@@ -9289,7 +9309,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B41" s="67">
         <v>1</v>
@@ -9298,7 +9318,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="67">
         <v>1</v>
@@ -9307,7 +9327,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="67">
         <v>1</v>
@@ -9316,7 +9336,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B44" s="67">
         <v>1</v>
@@ -9325,7 +9345,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B45" s="67">
         <v>1</v>
@@ -9334,7 +9354,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B46" s="67">
         <v>1</v>
@@ -9343,7 +9363,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B47" s="67">
         <v>1</v>
@@ -9352,7 +9372,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B48" s="67">
         <v>1</v>
@@ -9361,7 +9381,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="67">
         <v>1</v>
@@ -9370,7 +9390,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" s="67">
         <v>1</v>
@@ -9379,9 +9399,18 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B52" s="67">
         <v>1</v>
       </c>
     </row>
@@ -9396,10 +9425,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9564,7 +9593,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B10" s="98" t="s">
         <v>260</v>
@@ -9574,7 +9603,7 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>A10</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B11" s="98" t="s">
         <v>262</v>
@@ -9584,7 +9613,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B12" s="98" t="s">
         <v>260</v>
@@ -9594,7 +9623,7 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>A12</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>262</v>
@@ -9604,7 +9633,7 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B14" s="98" t="s">
         <v>260</v>
@@ -9614,7 +9643,7 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>A14</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B15" s="98" t="s">
         <v>262</v>
@@ -9624,7 +9653,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B16" s="98" t="s">
         <v>260</v>
@@ -9634,7 +9663,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>A16</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B17" s="98" t="s">
         <v>262</v>
@@ -9644,7 +9673,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B18" s="98" t="s">
         <v>260</v>
@@ -9654,7 +9683,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>A18</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B19" s="98" t="s">
         <v>262</v>
@@ -9664,7 +9693,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B20" s="98" t="s">
         <v>260</v>
@@ -9674,7 +9703,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>A20</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B21" s="98" t="s">
         <v>262</v>
@@ -9684,7 +9713,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B22" s="98" t="s">
         <v>260</v>
@@ -9694,7 +9723,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>A22</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B23" s="98" t="s">
         <v>262</v>
@@ -9704,7 +9733,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B24" s="98" t="s">
         <v>260</v>
@@ -9714,7 +9743,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>A24</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B25" s="98" t="s">
         <v>262</v>
@@ -9724,7 +9753,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>260</v>
@@ -9734,7 +9763,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>A26</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>262</v>
@@ -9744,7 +9773,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>260</v>
@@ -9754,7 +9783,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>A28</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B29" s="98" t="s">
         <v>262</v>
@@ -9764,7 +9793,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>260</v>
@@ -9774,7 +9803,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>A30</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>262</v>
@@ -9784,7 +9813,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B32" s="98" t="s">
         <v>260</v>
@@ -9794,7 +9823,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>A32</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B33" s="98" t="s">
         <v>262</v>
@@ -9804,7 +9833,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B34" s="98" t="s">
         <v>260</v>
@@ -9814,7 +9843,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>A34</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B35" s="98" t="s">
         <v>262</v>
@@ -9824,7 +9853,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>260</v>
@@ -9834,7 +9863,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>A36</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>262</v>
@@ -9844,7 +9873,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B38" s="98" t="s">
         <v>260</v>
@@ -9854,7 +9883,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>A38</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>262</v>
@@ -9864,7 +9893,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B40" s="98" t="s">
         <v>260</v>
@@ -9874,7 +9903,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>A40</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B41" s="98" t="s">
         <v>262</v>
@@ -9884,7 +9913,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>260</v>
@@ -9894,7 +9923,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>A42</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>262</v>
@@ -9904,7 +9933,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B44" s="98" t="s">
         <v>260</v>
@@ -9914,7 +9943,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>A44</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B45" s="98" t="s">
         <v>262</v>
@@ -9924,7 +9953,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B46" s="98" t="s">
         <v>260</v>
@@ -9934,7 +9963,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>A46</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B47" s="98" t="s">
         <v>262</v>
@@ -9944,7 +9973,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B48" s="98" t="s">
         <v>260</v>
@@ -9954,7 +9983,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>A48</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B49" s="98" t="s">
         <v>262</v>
@@ -9964,7 +9993,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B50" s="98" t="s">
         <v>260</v>
@@ -9974,7 +10003,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>A50</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B51" s="98" t="s">
         <v>262</v>
@@ -9984,7 +10013,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B52" s="98" t="s">
         <v>260</v>
@@ -9994,7 +10023,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
         <f>A52</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B53" s="98" t="s">
         <v>262</v>
@@ -10004,7 +10033,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B54" s="98" t="s">
         <v>260</v>
@@ -10014,7 +10043,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B55" s="98" t="s">
         <v>262</v>
@@ -10024,7 +10053,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B56" s="98" t="s">
         <v>260</v>
@@ -10034,7 +10063,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B57" s="98" t="s">
         <v>262</v>
@@ -10044,7 +10073,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B58" s="98" t="s">
         <v>260</v>
@@ -10054,7 +10083,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B59" s="98" t="s">
         <v>262</v>
@@ -10064,7 +10093,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B60" s="98" t="s">
         <v>260</v>
@@ -10074,7 +10103,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B61" s="98" t="s">
         <v>262</v>
@@ -10084,7 +10113,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B62" s="98" t="s">
         <v>260</v>
@@ -10094,7 +10123,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B63" s="98" t="s">
         <v>262</v>
@@ -10104,7 +10133,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B64" s="98" t="s">
         <v>260</v>
@@ -10114,7 +10143,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B65" s="98" t="s">
         <v>262</v>
@@ -10124,7 +10153,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B66" s="98" t="s">
         <v>260</v>
@@ -10134,7 +10163,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B67" s="98" t="s">
         <v>262</v>
@@ -10144,7 +10173,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B68" s="98" t="s">
         <v>260</v>
@@ -10154,7 +10183,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B69" s="98" t="s">
         <v>262</v>
@@ -10164,7 +10193,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B70" s="98" t="s">
         <v>260</v>
@@ -10174,7 +10203,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B71" s="98" t="s">
         <v>262</v>
@@ -10184,7 +10213,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B72" s="98" t="s">
         <v>260</v>
@@ -10194,7 +10223,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B73" s="98" t="s">
         <v>262</v>
@@ -10204,7 +10233,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B74" s="98" t="s">
         <v>260</v>
@@ -10214,7 +10243,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B75" s="98" t="s">
         <v>262</v>
@@ -10224,7 +10253,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B76" s="98" t="s">
         <v>260</v>
@@ -10234,7 +10263,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B77" s="98" t="s">
         <v>262</v>
@@ -10244,7 +10273,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B78" s="98" t="s">
         <v>260</v>
@@ -10254,7 +10283,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B79" s="98" t="s">
         <v>262</v>
@@ -10264,7 +10293,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B80" s="98" t="s">
         <v>260</v>
@@ -10274,7 +10303,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B81" s="98" t="s">
         <v>262</v>
@@ -10284,7 +10313,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B82" s="98" t="s">
         <v>260</v>
@@ -10294,7 +10323,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B83" s="98" t="s">
         <v>262</v>
@@ -10304,7 +10333,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B84" s="98" t="s">
         <v>260</v>
@@ -10314,7 +10343,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B85" s="98" t="s">
         <v>262</v>
@@ -10324,7 +10353,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B86" s="98" t="s">
         <v>260</v>
@@ -10334,7 +10363,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B87" s="98" t="s">
         <v>262</v>
@@ -10344,7 +10373,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B88" s="98" t="s">
         <v>260</v>
@@ -10354,7 +10383,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B89" s="98" t="s">
         <v>262</v>
@@ -10364,7 +10393,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B90" s="98" t="s">
         <v>260</v>
@@ -10374,7 +10403,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B91" s="98" t="s">
         <v>262</v>
@@ -10384,7 +10413,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B92" s="98" t="s">
         <v>260</v>
@@ -10394,7 +10423,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B93" s="98" t="s">
         <v>262</v>
@@ -10404,7 +10433,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B94" s="98" t="s">
         <v>260</v>
@@ -10414,7 +10443,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B95" s="98" t="s">
         <v>262</v>
@@ -10424,7 +10453,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B96" s="98" t="s">
         <v>260</v>
@@ -10434,7 +10463,7 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B97" s="98" t="s">
         <v>262</v>
@@ -10444,7 +10473,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B98" s="98" t="s">
         <v>260</v>
@@ -10454,7 +10483,7 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B99" s="98" t="s">
         <v>262</v>
@@ -10464,7 +10493,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B100" s="98" t="s">
         <v>260</v>
@@ -10474,12 +10503,32 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B101" s="98" t="s">
         <v>262</v>
       </c>
       <c r="C101" s="25"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="25"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="str">
+        <f>A102</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10495,7 +10544,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10560,10 +10609,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10654,7 +10703,7 @@
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="98" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -10665,12 +10714,12 @@
       <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="98" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -10681,12 +10730,12 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="98" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -10702,7 +10751,7 @@
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -10718,7 +10767,7 @@
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -10729,11 +10778,12 @@
       <c r="D10" s="11">
         <v>1</v>
       </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -10748,7 +10798,7 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -10763,7 +10813,7 @@
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -10778,7 +10828,7 @@
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -10793,7 +10843,7 @@
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
@@ -10808,7 +10858,7 @@
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -10823,7 +10873,7 @@
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B17" s="11">
         <v>0</v>
@@ -10838,7 +10888,7 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B18" s="11">
         <v>0</v>
@@ -10853,7 +10903,7 @@
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B19" s="11">
         <v>0</v>
@@ -10868,7 +10918,7 @@
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
@@ -10883,7 +10933,7 @@
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B21" s="11">
         <v>0</v>
@@ -10898,7 +10948,7 @@
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
@@ -10913,7 +10963,7 @@
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
@@ -10928,7 +10978,7 @@
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
@@ -10943,7 +10993,7 @@
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="98" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B25" s="11">
         <v>0</v>
@@ -10954,12 +11004,11 @@
       <c r="D25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="98" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
@@ -10975,7 +11024,7 @@
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="98" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
@@ -10991,7 +11040,7 @@
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="98" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B28" s="11">
         <v>0</v>
@@ -11002,11 +11051,12 @@
       <c r="D28" s="11">
         <v>1</v>
       </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="98" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B29" s="11">
         <v>0</v>
@@ -11021,7 +11071,7 @@
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="98" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -11036,7 +11086,7 @@
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="98" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B31" s="11">
         <v>0</v>
@@ -11047,12 +11097,11 @@
       <c r="D31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B32" s="11">
         <v>0</v>
@@ -11068,7 +11117,7 @@
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B33" s="11">
         <v>0</v>
@@ -11084,10 +11133,10 @@
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="98" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B34" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C34" s="11">
         <v>0.95</v>
@@ -11100,10 +11149,10 @@
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="98" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C35" s="11">
         <v>0.95</v>
@@ -11111,12 +11160,12 @@
       <c r="D35" s="11">
         <v>1</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" s="11">
         <v>0</v>
@@ -11127,12 +11176,12 @@
       <c r="D36" s="11">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="98" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B37" s="11">
         <v>0</v>
@@ -11148,7 +11197,7 @@
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="98" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" s="11">
         <v>0</v>
@@ -11164,7 +11213,7 @@
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="98" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
@@ -11175,11 +11224,12 @@
       <c r="D39" s="11">
         <v>1</v>
       </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="98" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B40" s="11">
         <v>0</v>
@@ -11194,10 +11244,10 @@
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="98" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B41" s="11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C41" s="11">
         <v>0.95</v>
@@ -11209,10 +11259,10 @@
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="98" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C42" s="11">
         <v>0.95</v>
@@ -11224,10 +11274,10 @@
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="11">
         <v>0.95</v>
@@ -11239,10 +11289,10 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B44" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="11">
         <v>0.95</v>
@@ -11254,7 +11304,7 @@
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B45" s="11">
         <v>0</v>
@@ -11269,7 +11319,7 @@
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B46" s="11">
         <v>0</v>
@@ -11284,7 +11334,7 @@
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B47" s="11">
         <v>0</v>
@@ -11299,7 +11349,7 @@
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B48" s="11">
         <v>0</v>
@@ -11311,10 +11361,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="98" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="11">
         <v>0</v>
@@ -11322,14 +11372,14 @@
       <c r="C49" s="11">
         <v>0.95</v>
       </c>
-      <c r="D49" s="124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" s="11">
         <v>0</v>
@@ -11344,7 +11394,7 @@
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="98" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B51" s="11">
         <v>0</v>
@@ -11356,8 +11406,23 @@
         <v>258</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="98" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="124" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D49">
+  <sortState ref="A2:D50">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13178,11 +13243,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13193,6 +13253,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13206,8 +13271,8 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17758,7 +17823,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18059,10 +18124,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19183,100 +19248,100 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="113">
+        <v>1</v>
+      </c>
+      <c r="F26" s="113">
+        <v>1</v>
+      </c>
+      <c r="G26" s="113">
+        <v>1</v>
+      </c>
+      <c r="H26" s="113">
+        <v>1</v>
+      </c>
+      <c r="I26" s="113">
+        <v>1</v>
+      </c>
+      <c r="J26" s="113">
+        <v>1</v>
+      </c>
+      <c r="K26" s="113">
+        <v>1</v>
+      </c>
+      <c r="L26" s="113">
+        <v>1</v>
+      </c>
+      <c r="M26" s="113">
+        <v>1</v>
+      </c>
+      <c r="N26" s="113">
+        <v>1</v>
+      </c>
+      <c r="O26" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="113">
-        <v>1</v>
-      </c>
-      <c r="D27" s="113">
-        <v>1</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="C28" s="113">
+        <v>1</v>
+      </c>
+      <c r="D28" s="113">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
         <v>0.9</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F28" s="31">
         <v>0.9</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G28" s="31">
         <v>0.9</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H28" s="31">
         <v>0.9</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I28" s="31">
         <v>0.9</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J28" s="31">
         <v>0.9</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K28" s="31">
         <v>0.9</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L28" s="31">
         <v>0.9</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M28" s="31">
         <v>0.9</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N28" s="31">
         <v>0.9</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O28" s="31">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="113">
-        <v>1</v>
-      </c>
-      <c r="D28" s="113">
-        <v>1</v>
-      </c>
-      <c r="E28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O28" s="123">
-        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="113">
         <v>1</v>
@@ -19320,7 +19385,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="113">
         <v>1</v>
@@ -19362,8 +19427,49 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="113">
+        <v>1</v>
+      </c>
+      <c r="D31" s="113">
+        <v>1</v>
+      </c>
+      <c r="E31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
@@ -19373,6 +19479,9 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19480,7 +19589,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21085,7 +21194,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21624,10 +21733,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22148,254 +22257,250 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="141">
+        <v>1</v>
+      </c>
+      <c r="D12" s="91">
+        <v>0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
+      <c r="F12" s="91">
+        <v>0</v>
+      </c>
+      <c r="G12" s="91">
+        <v>0</v>
+      </c>
+      <c r="H12" s="91">
+        <v>0</v>
+      </c>
+      <c r="I12" s="91">
+        <v>0</v>
+      </c>
+      <c r="J12" s="91">
+        <v>0</v>
+      </c>
+      <c r="K12" s="91">
+        <v>0</v>
+      </c>
+      <c r="L12" s="91">
+        <v>0</v>
+      </c>
+      <c r="M12" s="91">
+        <v>0</v>
+      </c>
+      <c r="N12" s="91">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="116">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="118">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="K14" s="118">
+      <c r="K15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="116">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="119">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="I16" s="119">
+      <c r="I17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="J16" s="119">
+      <c r="J17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="119">
-        <f t="shared" ref="H17:K18" si="0">FracRiskMalaria</f>
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
@@ -22412,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H18:K19" si="0">FracRiskMalaria</f>
         <v>0.1</v>
       </c>
       <c r="I18" s="119">
@@ -22440,826 +22545,830 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="32">
-        <v>0</v>
-      </c>
-      <c r="L20" s="116">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>0.114048</v>
       </c>
-      <c r="M20" s="116">
-        <v>0</v>
-      </c>
-      <c r="N20" s="116">
-        <v>0</v>
-      </c>
-      <c r="O20" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="M21" s="116">
+        <v>0</v>
+      </c>
+      <c r="N21" s="116">
+        <v>0</v>
+      </c>
+      <c r="O21" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="116">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)*(1-FracSchoolAttendance)</f>
         <v>0.1469664</v>
       </c>
-      <c r="M21" s="116">
+      <c r="M22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="N21" s="116">
+      <c r="N22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="O21" s="116">
+      <c r="O22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="116">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>6.2985600000000003E-2</v>
       </c>
-      <c r="M22" s="116">
+      <c r="M23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N22" s="116">
+      <c r="N23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="116">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>0.20275200000000002</v>
       </c>
-      <c r="M23" s="116">
-        <v>0</v>
-      </c>
-      <c r="N23" s="116">
-        <v>0</v>
-      </c>
-      <c r="O23" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="M24" s="116">
+        <v>0</v>
+      </c>
+      <c r="N24" s="116">
+        <v>0</v>
+      </c>
+      <c r="O24" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0</v>
-      </c>
-      <c r="K24" s="32">
-        <v>0</v>
-      </c>
-      <c r="L24" s="116">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)*(1-FracSchoolAttendance)</f>
         <v>0.18289152000000003</v>
       </c>
-      <c r="M24" s="116">
+      <c r="M25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="N24" s="116">
+      <c r="N25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="O24" s="116">
+      <c r="O25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="32">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>0</v>
-      </c>
-      <c r="L25" s="116">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)*(1-FracSchoolAttendance)</f>
         <v>7.8382080000000007E-2</v>
       </c>
-      <c r="M25" s="116">
+      <c r="M26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="N25" s="116">
+      <c r="N26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="O25" s="116">
+      <c r="O26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>0</v>
-      </c>
-      <c r="L26" s="116">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>0.11197440000000002</v>
       </c>
-      <c r="M26" s="116">
+      <c r="M27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="O26" s="116">
+      <c r="O27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
-        <v>0</v>
-      </c>
-      <c r="L27" s="116">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="116">
         <f>FracPoor*(FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>1.2671999999999998E-2</v>
       </c>
-      <c r="M27" s="116">
-        <v>0</v>
-      </c>
-      <c r="N27" s="116">
-        <v>0</v>
-      </c>
-      <c r="O27" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="M28" s="116">
+        <v>0</v>
+      </c>
+      <c r="N28" s="116">
+        <v>0</v>
+      </c>
+      <c r="O28" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="32">
-        <v>0</v>
-      </c>
-      <c r="L28" s="116">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)*(1-FracSchoolAttendance)</f>
         <v>1.63296E-2</v>
       </c>
-      <c r="M28" s="116">
+      <c r="M29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="N28" s="116">
+      <c r="N29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="O28" s="116">
+      <c r="O29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="116">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>6.9983999999999992E-3</v>
       </c>
-      <c r="M29" s="116">
+      <c r="M30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="N29" s="116">
+      <c r="N30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="O29" s="116">
+      <c r="O30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32">
-        <v>0</v>
-      </c>
-      <c r="L30" s="116">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>2.2527999999999999E-2</v>
       </c>
-      <c r="M30" s="116">
-        <v>0</v>
-      </c>
-      <c r="N30" s="116">
-        <v>0</v>
-      </c>
-      <c r="O30" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="M31" s="116">
+        <v>0</v>
+      </c>
+      <c r="N31" s="116">
+        <v>0</v>
+      </c>
+      <c r="O31" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="32">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" s="32">
-        <v>0</v>
-      </c>
-      <c r="L31" s="116">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)*(1-FracSchoolAttendance)</f>
         <v>2.0321280000000001E-2</v>
       </c>
-      <c r="M31" s="116">
+      <c r="M32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="N31" s="116">
+      <c r="N32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="116">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32">
+        <v>0</v>
+      </c>
+      <c r="L33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)*(1-FracSchoolAttendance)</f>
         <v>8.7091200000000007E-3</v>
       </c>
-      <c r="M32" s="116">
+      <c r="M33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="N32" s="116">
+      <c r="N33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="O32" s="116">
+      <c r="O33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="32">
-        <v>0</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="32">
-        <v>0</v>
-      </c>
-      <c r="L33" s="116">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="32">
+        <v>0</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <v>0</v>
+      </c>
+      <c r="L34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>1.2441599999999999E-2</v>
       </c>
-      <c r="M33" s="116">
+      <c r="M34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N33" s="116">
+      <c r="N34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O33" s="116">
+      <c r="O34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="32">
-        <v>0</v>
-      </c>
-      <c r="J34" s="32">
-        <v>0</v>
-      </c>
-      <c r="K34" s="32">
-        <v>0</v>
-      </c>
-      <c r="L34" s="117">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32">
+        <v>0</v>
+      </c>
+      <c r="L35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="M34" s="117">
+      <c r="M35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="N34" s="117">
+      <c r="N35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="O34" s="117">
+      <c r="O35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="33" t="s">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="32">
-        <v>0</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32">
-        <v>0</v>
-      </c>
-      <c r="L35" s="131">
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
+        <v>0</v>
+      </c>
+      <c r="L36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="M35" s="131">
+      <c r="M36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="N35" s="131">
+      <c r="N36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="O35" s="131">
+      <c r="O36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-    </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>246</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>247</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -23303,7 +23412,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -23347,7 +23456,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -23391,7 +23500,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -23435,7 +23544,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -23453,104 +23562,104 @@
         <v>1</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -23567,7 +23676,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -23611,312 +23720,356 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="119">
-        <f t="shared" ref="C47:O47" si="1">FracRiskMalaria</f>
+      <c r="C48" s="119">
+        <f t="shared" ref="C48:O48" si="1">FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="D47" s="119">
+      <c r="D48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E47" s="119">
+      <c r="E48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F47" s="119">
+      <c r="F48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G47" s="119">
+      <c r="G48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H47" s="119">
+      <c r="H48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I47" s="119">
+      <c r="I48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J47" s="119">
+      <c r="J48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K47" s="119">
+      <c r="K48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L47" s="119">
+      <c r="L48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M47" s="119">
+      <c r="M48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N47" s="119">
+      <c r="N48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O47" s="119">
+      <c r="O48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="9" t="s">
+    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="91">
-        <v>0</v>
-      </c>
-      <c r="D48" s="91">
-        <v>0</v>
-      </c>
-      <c r="E48" s="119">
-        <f t="shared" ref="E48:O48" si="2">FracEatingWheat</f>
+      <c r="C49" s="91">
+        <v>0</v>
+      </c>
+      <c r="D49" s="91">
+        <v>0</v>
+      </c>
+      <c r="E49" s="119">
+        <f t="shared" ref="E49:O49" si="2">FracEatingWheat</f>
         <v>0.12</v>
       </c>
-      <c r="F48" s="119">
+      <c r="F49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G48" s="119">
+      <c r="G49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H48" s="119">
+      <c r="H49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I48" s="119">
+      <c r="I49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J48" s="119">
+      <c r="J49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K48" s="119">
+      <c r="K49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L48" s="119">
+      <c r="L49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M48" s="119">
+      <c r="M49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N48" s="119">
+      <c r="N49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O48" s="119">
+      <c r="O49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="9" t="s">
+    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="91">
-        <v>0</v>
-      </c>
-      <c r="D49" s="91">
-        <v>0</v>
-      </c>
-      <c r="E49" s="118">
-        <f t="shared" ref="E49:O49" si="3">FracEatMaize</f>
+      <c r="C50" s="91">
+        <v>0</v>
+      </c>
+      <c r="D50" s="91">
+        <v>0</v>
+      </c>
+      <c r="E50" s="118">
+        <f t="shared" ref="E50:O50" si="3">FracEatMaize</f>
         <v>0.05</v>
       </c>
-      <c r="F49" s="118">
+      <c r="F50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G49" s="118">
+      <c r="G50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H49" s="118">
+      <c r="H50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="I49" s="118">
+      <c r="I50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J49" s="118">
+      <c r="J50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K49" s="118">
+      <c r="K50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L49" s="118">
+      <c r="L50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="N49" s="118">
+      <c r="N50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O49" s="118">
+      <c r="O50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="91">
-        <v>0</v>
-      </c>
-      <c r="D50" s="91">
-        <v>0</v>
-      </c>
-      <c r="E50" s="118">
-        <f t="shared" ref="E50:O50" si="4">FracEatRice</f>
+      <c r="C51" s="91">
+        <v>0</v>
+      </c>
+      <c r="D51" s="91">
+        <v>0</v>
+      </c>
+      <c r="E51" s="118">
+        <f t="shared" ref="E51:O51" si="4">FracEatRice</f>
         <v>0.8</v>
       </c>
-      <c r="F50" s="118">
+      <c r="F51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G50" s="118">
+      <c r="G51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H50" s="118">
+      <c r="H51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I50" s="118">
+      <c r="I51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J50" s="118">
+      <c r="J51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="N50" s="118">
+      <c r="N51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O50" s="118">
+      <c r="O51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="4" t="s">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>1</v>
-      </c>
-      <c r="F51" s="23">
-        <v>1</v>
-      </c>
-      <c r="G51" s="23">
-        <v>1</v>
-      </c>
-      <c r="H51" s="23">
-        <v>1</v>
-      </c>
-      <c r="I51" s="23">
-        <v>1</v>
-      </c>
-      <c r="J51" s="23">
-        <v>1</v>
-      </c>
-      <c r="K51" s="23">
-        <v>1</v>
-      </c>
-      <c r="L51" s="23">
-        <v>1</v>
-      </c>
-      <c r="M51" s="23">
-        <v>1</v>
-      </c>
-      <c r="N51" s="23">
-        <v>1</v>
-      </c>
-      <c r="O51" s="23">
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>1</v>
+      </c>
+      <c r="H52" s="23">
+        <v>1</v>
+      </c>
+      <c r="I52" s="23">
+        <v>1</v>
+      </c>
+      <c r="J52" s="23">
+        <v>1</v>
+      </c>
+      <c r="K52" s="23">
+        <v>1</v>
+      </c>
+      <c r="L52" s="23">
+        <v>1</v>
+      </c>
+      <c r="M52" s="23">
+        <v>1</v>
+      </c>
+      <c r="N52" s="23">
+        <v>1</v>
+      </c>
+      <c r="O52" s="23">
         <v>1</v>
       </c>
     </row>
@@ -23932,10 +24085,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24441,159 +24594,159 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="B12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="92">
+        <v>1</v>
+      </c>
+      <c r="D12" s="92">
+        <v>1</v>
+      </c>
+      <c r="E12" s="92">
+        <v>0</v>
+      </c>
+      <c r="F12" s="92">
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <v>0</v>
+      </c>
+      <c r="H12" s="92">
+        <v>0</v>
+      </c>
+      <c r="I12" s="92">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <v>0</v>
+      </c>
+      <c r="L12" s="92">
+        <v>0</v>
+      </c>
+      <c r="M12" s="92">
+        <v>0</v>
+      </c>
+      <c r="N12" s="92">
+        <v>0</v>
+      </c>
+      <c r="O12" s="92">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32">
-        <v>1</v>
-      </c>
-      <c r="I13" s="32">
-        <v>1</v>
-      </c>
-      <c r="J13" s="32">
-        <v>1</v>
-      </c>
-      <c r="K13" s="32">
-        <v>1</v>
-      </c>
-      <c r="L13" s="32">
-        <v>0</v>
-      </c>
-      <c r="M13" s="32">
-        <v>0</v>
-      </c>
-      <c r="N13" s="32">
-        <v>0</v>
-      </c>
-      <c r="O13" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="32">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1</v>
-      </c>
-      <c r="I14" s="32">
-        <v>1</v>
-      </c>
-      <c r="J14" s="32">
-        <v>1</v>
-      </c>
-      <c r="K14" s="32">
-        <v>1</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
+      </c>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1</v>
-      </c>
-      <c r="I15" s="32">
-        <v>1</v>
-      </c>
-      <c r="J15" s="32">
-        <v>1</v>
-      </c>
-      <c r="K15" s="32">
-        <v>1</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C16" s="32">
         <v>0</v>
@@ -24637,51 +24790,51 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1</v>
+      </c>
+      <c r="K17" s="32">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1</v>
-      </c>
-      <c r="I17" s="32">
-        <v>1</v>
-      </c>
-      <c r="J17" s="32">
-        <v>1</v>
-      </c>
-      <c r="K17" s="32">
-        <v>1</v>
-      </c>
-      <c r="L17" s="32">
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="32">
         <v>0</v>
@@ -24725,51 +24878,51 @@
     </row>
     <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="K19" s="32">
+        <v>1</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
-        <v>1</v>
-      </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="32">
-        <v>1</v>
-      </c>
-      <c r="G19" s="32">
-        <v>1</v>
-      </c>
-      <c r="H19" s="95">
-        <v>0</v>
-      </c>
-      <c r="I19" s="95">
-        <v>0</v>
-      </c>
-      <c r="J19" s="95">
-        <v>0</v>
-      </c>
-      <c r="K19" s="95">
-        <v>0</v>
-      </c>
-      <c r="L19" s="95">
-        <v>0</v>
-      </c>
-      <c r="M19" s="95">
-        <v>0</v>
-      </c>
-      <c r="N19" s="95">
-        <v>0</v>
-      </c>
-      <c r="O19" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>155</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -24813,114 +24966,114 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="95">
+        <v>0</v>
+      </c>
+      <c r="I21" s="95">
+        <v>0</v>
+      </c>
+      <c r="J21" s="95">
+        <v>0</v>
+      </c>
+      <c r="K21" s="95">
+        <v>0</v>
+      </c>
+      <c r="L21" s="95">
+        <v>0</v>
+      </c>
+      <c r="M21" s="95">
+        <v>0</v>
+      </c>
+      <c r="N21" s="95">
+        <v>0</v>
+      </c>
+      <c r="O21" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32">
-        <v>1</v>
-      </c>
-      <c r="H21" s="95">
-        <v>0</v>
-      </c>
-      <c r="I21" s="95">
-        <v>0</v>
-      </c>
-      <c r="J21" s="95">
-        <v>0</v>
-      </c>
-      <c r="K21" s="95">
-        <v>0</v>
-      </c>
-      <c r="L21" s="95">
-        <v>0</v>
-      </c>
-      <c r="M21" s="95">
-        <v>0</v>
-      </c>
-      <c r="N21" s="95">
-        <v>0</v>
-      </c>
-      <c r="O21" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="95">
+        <v>0</v>
+      </c>
+      <c r="I22" s="95">
+        <v>0</v>
+      </c>
+      <c r="J22" s="95">
+        <v>0</v>
+      </c>
+      <c r="K22" s="95">
+        <v>0</v>
+      </c>
+      <c r="L22" s="95">
+        <v>0</v>
+      </c>
+      <c r="M22" s="95">
+        <v>0</v>
+      </c>
+      <c r="N22" s="95">
+        <v>0</v>
+      </c>
+      <c r="O22" s="95">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>1</v>
-      </c>
-      <c r="M23" s="32">
-        <v>0</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
       <c r="C24" s="32">
         <v>0</v>
       </c>
@@ -24952,18 +25105,18 @@
         <v>1</v>
       </c>
       <c r="M24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="32">
         <v>0</v>
@@ -25007,7 +25160,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="32">
         <v>0</v>
@@ -25040,18 +25193,18 @@
         <v>1</v>
       </c>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="32">
         <v>0</v>
@@ -25084,18 +25237,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="32">
         <v>0</v>
@@ -25139,97 +25292,97 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>1</v>
+      </c>
+      <c r="M29" s="32">
+        <v>1</v>
+      </c>
+      <c r="N29" s="32">
+        <v>1</v>
+      </c>
+      <c r="O29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="32">
-        <v>0</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="32">
-        <v>0</v>
-      </c>
-      <c r="H29" s="32">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="32">
-        <v>1</v>
-      </c>
-      <c r="M29" s="32">
-        <v>1</v>
-      </c>
-      <c r="N29" s="32">
-        <v>1</v>
-      </c>
-      <c r="O29" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s">
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>1</v>
+      </c>
+      <c r="M30" s="32">
+        <v>1</v>
+      </c>
+      <c r="N30" s="32">
+        <v>1</v>
+      </c>
+      <c r="O30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="32">
-        <v>0</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32">
-        <v>0</v>
-      </c>
-      <c r="G30" s="32">
-        <v>0</v>
-      </c>
-      <c r="H30" s="32">
-        <v>0</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32">
-        <v>0</v>
-      </c>
-      <c r="L30" s="32">
-        <v>1</v>
-      </c>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
       <c r="C31" s="32">
         <v>0</v>
       </c>
@@ -25261,18 +25414,18 @@
         <v>1</v>
       </c>
       <c r="M31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="32">
         <v>0</v>
@@ -25316,7 +25469,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="32">
         <v>0</v>
@@ -25349,18 +25502,18 @@
         <v>1</v>
       </c>
       <c r="M33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="32">
         <v>0</v>
@@ -25393,18 +25546,18 @@
         <v>1</v>
       </c>
       <c r="M34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="32">
         <v>0</v>
@@ -25448,7 +25601,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="32">
         <v>0</v>
@@ -25492,158 +25645,158 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
+        <v>1</v>
+      </c>
+      <c r="M37" s="32">
+        <v>1</v>
+      </c>
+      <c r="N37" s="32">
+        <v>1</v>
+      </c>
+      <c r="O37" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="32">
-        <v>0</v>
-      </c>
-      <c r="D37" s="32">
-        <v>0</v>
-      </c>
-      <c r="E37" s="32">
-        <v>0</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0</v>
-      </c>
-      <c r="G37" s="32">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32">
-        <v>0</v>
-      </c>
-      <c r="I37" s="32">
-        <v>0</v>
-      </c>
-      <c r="J37" s="32">
-        <v>0</v>
-      </c>
-      <c r="K37" s="32">
-        <v>0</v>
-      </c>
-      <c r="L37" s="95">
-        <v>1</v>
-      </c>
-      <c r="M37" s="95">
-        <v>1</v>
-      </c>
-      <c r="N37" s="95">
-        <v>1</v>
-      </c>
-      <c r="O37" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="32">
+        <v>0</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0</v>
+      </c>
+      <c r="J38" s="32">
+        <v>0</v>
+      </c>
+      <c r="K38" s="32">
+        <v>0</v>
+      </c>
+      <c r="L38" s="95">
+        <v>1</v>
+      </c>
+      <c r="M38" s="95">
+        <v>1</v>
+      </c>
+      <c r="N38" s="95">
+        <v>1</v>
+      </c>
+      <c r="O38" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="32">
-        <v>0</v>
-      </c>
-      <c r="D38" s="32">
-        <v>0</v>
-      </c>
-      <c r="E38" s="32">
-        <v>0</v>
-      </c>
-      <c r="F38" s="32">
-        <v>0</v>
-      </c>
-      <c r="G38" s="32">
-        <v>0</v>
-      </c>
-      <c r="H38" s="32">
-        <v>0</v>
-      </c>
-      <c r="I38" s="32">
-        <v>0</v>
-      </c>
-      <c r="J38" s="32">
-        <v>0</v>
-      </c>
-      <c r="K38" s="32">
-        <v>0</v>
-      </c>
-      <c r="L38" s="32">
-        <v>1</v>
-      </c>
-      <c r="M38" s="32">
-        <v>1</v>
-      </c>
-      <c r="N38" s="32">
-        <v>1</v>
-      </c>
-      <c r="O38" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
+      <c r="C39" s="32">
+        <v>0</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>1</v>
+      </c>
+      <c r="M39" s="32">
+        <v>1</v>
+      </c>
+      <c r="N39" s="32">
+        <v>1</v>
+      </c>
+      <c r="O39" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>246</v>
-      </c>
-      <c r="C40" s="32">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="E40" s="32">
-        <v>1</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1</v>
-      </c>
-      <c r="G40" s="32">
-        <v>1</v>
-      </c>
-      <c r="H40" s="32">
-        <v>1</v>
-      </c>
-      <c r="I40" s="32">
-        <v>1</v>
-      </c>
-      <c r="J40" s="32">
-        <v>1</v>
-      </c>
-      <c r="K40" s="32">
-        <v>1</v>
-      </c>
-      <c r="L40" s="32">
-        <v>1</v>
-      </c>
-      <c r="M40" s="32">
-        <v>1</v>
-      </c>
-      <c r="N40" s="32">
-        <v>1</v>
-      </c>
-      <c r="O40" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>247</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
@@ -25687,7 +25840,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
@@ -25731,7 +25884,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
@@ -25775,7 +25928,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
@@ -25819,7 +25972,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
@@ -25837,104 +25990,104 @@
         <v>1</v>
       </c>
       <c r="H45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="32">
+        <v>1</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32">
+        <v>1</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0</v>
+      </c>
+      <c r="J46" s="32">
+        <v>0</v>
+      </c>
+      <c r="K46" s="32">
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <v>0</v>
+      </c>
+      <c r="M46" s="32">
+        <v>0</v>
+      </c>
+      <c r="N46" s="32">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="32">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32">
-        <v>1</v>
-      </c>
-      <c r="E46" s="32">
-        <v>1</v>
-      </c>
-      <c r="F46" s="32">
-        <v>1</v>
-      </c>
-      <c r="G46" s="32">
-        <v>1</v>
-      </c>
-      <c r="H46" s="32">
-        <v>0</v>
-      </c>
-      <c r="I46" s="32">
-        <v>0</v>
-      </c>
-      <c r="J46" s="32">
-        <v>0</v>
-      </c>
-      <c r="K46" s="32">
-        <v>0</v>
-      </c>
-      <c r="L46" s="32">
-        <v>0</v>
-      </c>
-      <c r="M46" s="32">
-        <v>0</v>
-      </c>
-      <c r="N46" s="32">
-        <v>0</v>
-      </c>
-      <c r="O46" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="32">
         <v>0</v>
@@ -25951,7 +26104,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -25995,140 +26148,140 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="32">
+        <v>0</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0</v>
+      </c>
+      <c r="G49" s="32">
+        <v>0</v>
+      </c>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>1</v>
+      </c>
+      <c r="J49" s="32">
+        <v>1</v>
+      </c>
+      <c r="K49" s="32">
+        <v>1</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>0</v>
+      </c>
+      <c r="N49" s="32">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0</v>
-      </c>
-      <c r="E49" s="32">
-        <v>0</v>
-      </c>
-      <c r="F49" s="32">
-        <v>0</v>
-      </c>
-      <c r="G49" s="32">
-        <v>0</v>
-      </c>
-      <c r="H49" s="32">
-        <v>1</v>
-      </c>
-      <c r="I49" s="32">
-        <v>1</v>
-      </c>
-      <c r="J49" s="32">
-        <v>1</v>
-      </c>
-      <c r="K49" s="32">
-        <v>1</v>
-      </c>
-      <c r="L49" s="32">
-        <v>0</v>
-      </c>
-      <c r="M49" s="32">
-        <v>0</v>
-      </c>
-      <c r="N49" s="32">
-        <v>0</v>
-      </c>
-      <c r="O49" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="32">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0</v>
+      </c>
+      <c r="G50" s="32">
+        <v>0</v>
+      </c>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>1</v>
+      </c>
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+      <c r="K50" s="32">
+        <v>1</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>0</v>
+      </c>
+      <c r="N50" s="32">
+        <v>0</v>
+      </c>
+      <c r="O50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="95">
-        <v>1</v>
-      </c>
-      <c r="D50" s="95">
-        <v>1</v>
-      </c>
-      <c r="E50" s="95">
-        <v>1</v>
-      </c>
-      <c r="F50" s="95">
-        <v>1</v>
-      </c>
-      <c r="G50" s="95">
-        <v>1</v>
-      </c>
-      <c r="H50" s="95">
-        <v>1</v>
-      </c>
-      <c r="I50" s="95">
-        <v>1</v>
-      </c>
-      <c r="J50" s="95">
-        <v>1</v>
-      </c>
-      <c r="K50" s="95">
-        <v>1</v>
-      </c>
-      <c r="L50" s="95">
-        <v>1</v>
-      </c>
-      <c r="M50" s="95">
-        <v>1</v>
-      </c>
-      <c r="N50" s="95">
-        <v>1</v>
-      </c>
-      <c r="O50" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="92">
-        <v>1</v>
-      </c>
-      <c r="D51" s="92">
-        <v>0</v>
-      </c>
-      <c r="E51" s="97">
-        <v>1</v>
-      </c>
-      <c r="F51" s="97">
-        <v>1</v>
-      </c>
-      <c r="G51" s="97">
-        <v>1</v>
-      </c>
-      <c r="H51" s="97">
-        <v>1</v>
-      </c>
-      <c r="I51" s="97">
-        <v>1</v>
-      </c>
-      <c r="J51" s="97">
-        <v>1</v>
-      </c>
-      <c r="K51" s="97">
-        <v>1</v>
-      </c>
-      <c r="L51" s="97">
-        <v>1</v>
-      </c>
-      <c r="M51" s="97">
-        <v>1</v>
-      </c>
-      <c r="N51" s="97">
-        <v>1</v>
-      </c>
-      <c r="O51" s="97">
+      <c r="C51" s="95">
+        <v>1</v>
+      </c>
+      <c r="D51" s="95">
+        <v>1</v>
+      </c>
+      <c r="E51" s="95">
+        <v>1</v>
+      </c>
+      <c r="F51" s="95">
+        <v>1</v>
+      </c>
+      <c r="G51" s="95">
+        <v>1</v>
+      </c>
+      <c r="H51" s="95">
+        <v>1</v>
+      </c>
+      <c r="I51" s="95">
+        <v>1</v>
+      </c>
+      <c r="J51" s="95">
+        <v>1</v>
+      </c>
+      <c r="K51" s="95">
+        <v>1</v>
+      </c>
+      <c r="L51" s="95">
+        <v>1</v>
+      </c>
+      <c r="M51" s="95">
+        <v>1</v>
+      </c>
+      <c r="N51" s="95">
+        <v>1</v>
+      </c>
+      <c r="O51" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="92">
         <v>1</v>
@@ -26136,125 +26289,169 @@
       <c r="D52" s="92">
         <v>0</v>
       </c>
-      <c r="E52" s="92">
-        <v>1</v>
-      </c>
-      <c r="F52" s="92">
-        <v>1</v>
-      </c>
-      <c r="G52" s="92">
-        <v>1</v>
-      </c>
-      <c r="H52" s="92">
-        <v>1</v>
-      </c>
-      <c r="I52" s="92">
-        <v>1</v>
-      </c>
-      <c r="J52" s="92">
-        <v>1</v>
-      </c>
-      <c r="K52" s="92">
-        <v>1</v>
-      </c>
-      <c r="L52" s="92">
-        <v>1</v>
-      </c>
-      <c r="M52" s="92">
-        <v>1</v>
-      </c>
-      <c r="N52" s="92">
-        <v>1</v>
-      </c>
-      <c r="O52" s="92">
+      <c r="E52" s="97">
+        <v>1</v>
+      </c>
+      <c r="F52" s="97">
+        <v>1</v>
+      </c>
+      <c r="G52" s="97">
+        <v>1</v>
+      </c>
+      <c r="H52" s="97">
+        <v>1</v>
+      </c>
+      <c r="I52" s="97">
+        <v>1</v>
+      </c>
+      <c r="J52" s="97">
+        <v>1</v>
+      </c>
+      <c r="K52" s="97">
+        <v>1</v>
+      </c>
+      <c r="L52" s="97">
+        <v>1</v>
+      </c>
+      <c r="M52" s="97">
+        <v>1</v>
+      </c>
+      <c r="N52" s="97">
+        <v>1</v>
+      </c>
+      <c r="O52" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="92">
+        <v>1</v>
+      </c>
+      <c r="D53" s="92">
+        <v>0</v>
+      </c>
+      <c r="E53" s="92">
+        <v>1</v>
+      </c>
+      <c r="F53" s="92">
+        <v>1</v>
+      </c>
+      <c r="G53" s="92">
+        <v>1</v>
+      </c>
+      <c r="H53" s="92">
+        <v>1</v>
+      </c>
+      <c r="I53" s="92">
+        <v>1</v>
+      </c>
+      <c r="J53" s="92">
+        <v>1</v>
+      </c>
+      <c r="K53" s="92">
+        <v>1</v>
+      </c>
+      <c r="L53" s="92">
+        <v>1</v>
+      </c>
+      <c r="M53" s="92">
+        <v>1</v>
+      </c>
+      <c r="N53" s="92">
+        <v>1</v>
+      </c>
+      <c r="O53" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="92">
-        <v>1</v>
-      </c>
-      <c r="D53" s="92">
-        <v>0</v>
-      </c>
-      <c r="E53" s="92">
-        <v>1</v>
-      </c>
-      <c r="F53" s="92">
-        <v>1</v>
-      </c>
-      <c r="G53" s="92">
-        <v>1</v>
-      </c>
-      <c r="H53" s="92">
-        <v>1</v>
-      </c>
-      <c r="I53" s="92">
-        <v>1</v>
-      </c>
-      <c r="J53" s="92">
-        <v>1</v>
-      </c>
-      <c r="K53" s="92">
-        <v>1</v>
-      </c>
-      <c r="L53" s="92">
-        <v>1</v>
-      </c>
-      <c r="M53" s="92">
-        <v>1</v>
-      </c>
-      <c r="N53" s="92">
-        <v>1</v>
-      </c>
-      <c r="O53" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="92">
+        <v>1</v>
+      </c>
+      <c r="D54" s="92">
+        <v>0</v>
+      </c>
+      <c r="E54" s="92">
+        <v>1</v>
+      </c>
+      <c r="F54" s="92">
+        <v>1</v>
+      </c>
+      <c r="G54" s="92">
+        <v>1</v>
+      </c>
+      <c r="H54" s="92">
+        <v>1</v>
+      </c>
+      <c r="I54" s="92">
+        <v>1</v>
+      </c>
+      <c r="J54" s="92">
+        <v>1</v>
+      </c>
+      <c r="K54" s="92">
+        <v>1</v>
+      </c>
+      <c r="L54" s="92">
+        <v>1</v>
+      </c>
+      <c r="M54" s="92">
+        <v>1</v>
+      </c>
+      <c r="N54" s="92">
+        <v>1</v>
+      </c>
+      <c r="O54" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1</v>
-      </c>
-      <c r="H54" s="23">
-        <v>1</v>
-      </c>
-      <c r="I54" s="23">
-        <v>1</v>
-      </c>
-      <c r="J54" s="23">
-        <v>1</v>
-      </c>
-      <c r="K54" s="23">
-        <v>1</v>
-      </c>
-      <c r="L54" s="23">
-        <v>1</v>
-      </c>
-      <c r="M54" s="23">
-        <v>1</v>
-      </c>
-      <c r="N54" s="23">
-        <v>1</v>
-      </c>
-      <c r="O54" s="23">
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <v>1</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+      <c r="H55" s="23">
+        <v>1</v>
+      </c>
+      <c r="I55" s="23">
+        <v>1</v>
+      </c>
+      <c r="J55" s="23">
+        <v>1</v>
+      </c>
+      <c r="K55" s="23">
+        <v>1</v>
+      </c>
+      <c r="L55" s="23">
+        <v>1</v>
+      </c>
+      <c r="M55" s="23">
+        <v>1</v>
+      </c>
+      <c r="N55" s="23">
+        <v>1</v>
+      </c>
+      <c r="O55" s="23">
         <v>1</v>
       </c>
     </row>
@@ -26268,10 +26465,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26363,28 +26560,25 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
-      </c>
-      <c r="J6" t="s">
+        <v>Delayed cord clamping</v>
+      </c>
+      <c r="C6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
+        <v>Family Planning</v>
+      </c>
+      <c r="J7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -26396,7 +26590,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="C9" t="s">
         <v>158</v>
@@ -26408,16 +26602,19 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
@@ -26426,7 +26623,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="C12" t="s">
         <v>158</v>
@@ -26435,7 +26632,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -26444,7 +26641,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -26453,7 +26650,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -26462,7 +26659,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -26471,7 +26668,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="C17" t="s">
         <v>158</v>
@@ -26480,7 +26677,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="C18" t="s">
         <v>158</v>
@@ -26489,7 +26686,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="C19" t="s">
         <v>158</v>
@@ -26498,7 +26695,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="C20" t="s">
         <v>158</v>
@@ -26507,7 +26704,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="C21" t="s">
         <v>158</v>
@@ -26516,7 +26713,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="C22" t="s">
         <v>158</v>
@@ -26525,7 +26722,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="C23" t="s">
         <v>158</v>
@@ -26534,24 +26731,21 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
         <v>158</v>
       </c>
       <c r="I25" t="s">
@@ -26561,7 +26755,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="C26" t="s">
         <v>158</v>
@@ -26573,37 +26767,40 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="H29" t="s">
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="H30" t="s">
         <v>158</v>
@@ -26612,19 +26809,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="s">
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="H31" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
@@ -26633,46 +26827,43 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="G33" t="s">
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="C33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B34" t="s">
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="G34" t="s">
         <v>158</v>
       </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" t="s">
         <v>158</v>
       </c>
-      <c r="C35" t="s">
-        <v>158</v>
-      </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" t="s">
         <v>158</v>
@@ -26684,58 +26875,61 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="C38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
-      </c>
-      <c r="E39" t="s">
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="C39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="E40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="G41" t="s">
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="E41" t="s">
         <v>158</v>
       </c>
-      <c r="H41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -26744,10 +26938,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="G43" t="s">
         <v>158</v>
@@ -26756,10 +26950,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="G44" t="s">
         <v>158</v>
@@ -26768,10 +26962,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="G45" t="s">
         <v>158</v>
@@ -26780,10 +26974,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="G46" t="s">
         <v>158</v>
@@ -26792,46 +26986,46 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="G47" t="s">
+        <v>158</v>
       </c>
       <c r="H47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B48" s="98" t="s">
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="H48" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B49" t="s">
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B49" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" s="98" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H49" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
@@ -26840,15 +27034,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B51" t="s">
         <v>158</v>
       </c>
       <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="s">
         <v>158</v>
       </c>
     </row>
@@ -27168,7 +27374,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
